--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.64875866666667</v>
+        <v>3.554972</v>
       </c>
       <c r="H2">
-        <v>31.946276</v>
+        <v>10.664916</v>
       </c>
       <c r="I2">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="J2">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N2">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O2">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P2">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q2">
-        <v>33.08296709511467</v>
+        <v>5.115308460333333</v>
       </c>
       <c r="R2">
-        <v>297.746703856032</v>
+        <v>46.03777614299999</v>
       </c>
       <c r="S2">
-        <v>0.005681228163653756</v>
+        <v>0.0009769005417570324</v>
       </c>
       <c r="T2">
-        <v>0.005681228163653756</v>
+        <v>0.0009769005417570326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.64875866666667</v>
+        <v>3.554972</v>
       </c>
       <c r="H3">
-        <v>31.946276</v>
+        <v>10.664916</v>
       </c>
       <c r="I3">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="J3">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.568059</v>
       </c>
       <c r="O3">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P3">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q3">
-        <v>16.21471928869822</v>
+        <v>5.413107279782666</v>
       </c>
       <c r="R3">
-        <v>145.932473598284</v>
+        <v>48.717965518044</v>
       </c>
       <c r="S3">
-        <v>0.002784499939919093</v>
+        <v>0.001033772933776125</v>
       </c>
       <c r="T3">
-        <v>0.002784499939919093</v>
+        <v>0.001033772933776125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.64875866666667</v>
+        <v>3.554972</v>
       </c>
       <c r="H4">
-        <v>31.946276</v>
+        <v>10.664916</v>
       </c>
       <c r="I4">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="J4">
-        <v>0.04005553530491663</v>
+        <v>0.01373869946676525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>17.274688</v>
       </c>
       <c r="N4">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O4">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P4">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q4">
-        <v>183.9539835539627</v>
+        <v>61.411032148736</v>
       </c>
       <c r="R4">
-        <v>1655.585851985664</v>
+        <v>552.699289338624</v>
       </c>
       <c r="S4">
-        <v>0.03158980720134378</v>
+        <v>0.01172802599123209</v>
       </c>
       <c r="T4">
-        <v>0.03158980720134378</v>
+        <v>0.01172802599123209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>718.000228</v>
       </c>
       <c r="I5">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209767</v>
       </c>
       <c r="J5">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209768</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N5">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O5">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P5">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q5">
-        <v>743.5476334458774</v>
+        <v>344.3808315798889</v>
       </c>
       <c r="R5">
-        <v>6691.928701012896</v>
+        <v>3099.427484219</v>
       </c>
       <c r="S5">
-        <v>0.1276869678588959</v>
+        <v>0.06576843284230957</v>
       </c>
       <c r="T5">
-        <v>0.1276869678588959</v>
+        <v>0.06576843284230958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>718.000228</v>
       </c>
       <c r="I6">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209767</v>
       </c>
       <c r="J6">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209768</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.568059</v>
       </c>
       <c r="O6">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P6">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q6">
         <v>364.4297115019391</v>
@@ -818,10 +818,10 @@
         <v>3279.867403517452</v>
       </c>
       <c r="S6">
-        <v>0.06258230510898659</v>
+        <v>0.06959728535616096</v>
       </c>
       <c r="T6">
-        <v>0.06258230510898659</v>
+        <v>0.06959728535616097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>718.000228</v>
       </c>
       <c r="I7">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209767</v>
       </c>
       <c r="J7">
-        <v>0.9002577790786066</v>
+        <v>0.9249383070209768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>17.274688</v>
       </c>
       <c r="N7">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O7">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P7">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q7">
         <v>4134.409974209621</v>
@@ -880,10 +880,10 @@
         <v>37209.68976788659</v>
       </c>
       <c r="S7">
-        <v>0.7099885061107241</v>
+        <v>0.7895725888225061</v>
       </c>
       <c r="T7">
-        <v>0.7099885061107242</v>
+        <v>0.7895725888225064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>47.603092</v>
       </c>
       <c r="I8">
-        <v>0.05968668561647669</v>
+        <v>0.06132299351225805</v>
       </c>
       <c r="J8">
-        <v>0.0596866856164767</v>
+        <v>0.06132299351225806</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N8">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O8">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P8">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q8">
-        <v>49.29687348414934</v>
+        <v>22.83229415455556</v>
       </c>
       <c r="R8">
-        <v>443.6718613573441</v>
+        <v>205.490647391</v>
       </c>
       <c r="S8">
-        <v>0.008465588507010985</v>
+        <v>0.004360417500157513</v>
       </c>
       <c r="T8">
-        <v>0.008465588507010985</v>
+        <v>0.004360417500157514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>47.603092</v>
       </c>
       <c r="I9">
-        <v>0.05968668561647669</v>
+        <v>0.06132299351225805</v>
       </c>
       <c r="J9">
-        <v>0.0596866856164767</v>
+        <v>0.06132299351225806</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.568059</v>
       </c>
       <c r="O9">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P9">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q9">
         <v>24.16152587093645</v>
@@ -1004,10 +1004,10 @@
         <v>217.453732838428</v>
       </c>
       <c r="S9">
-        <v>0.004149178665267999</v>
+        <v>0.00461426869875532</v>
       </c>
       <c r="T9">
-        <v>0.004149178665267999</v>
+        <v>0.004614268698755321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>47.603092</v>
       </c>
       <c r="I10">
-        <v>0.05968668561647669</v>
+        <v>0.06132299351225805</v>
       </c>
       <c r="J10">
-        <v>0.0596866856164767</v>
+        <v>0.06132299351225806</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>17.274688</v>
       </c>
       <c r="N10">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O10">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P10">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q10">
         <v>274.1095207117654</v>
@@ -1066,10 +1066,10 @@
         <v>2466.985686405888</v>
       </c>
       <c r="S10">
-        <v>0.0470719184441977</v>
+        <v>0.05234830731334522</v>
       </c>
       <c r="T10">
-        <v>0.04707191844419772</v>
+        <v>0.05234830731334523</v>
       </c>
     </row>
   </sheetData>
